--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N2">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q2">
-        <v>0.1157049441616667</v>
+        <v>0.075804591054</v>
       </c>
       <c r="R2">
-        <v>1.041344497455</v>
+        <v>0.6822413194860001</v>
       </c>
       <c r="S2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="T2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>0.466686</v>
       </c>
       <c r="O3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q3">
         <v>0.024651443454</v>
@@ -632,10 +632,10 @@
         <v>0.221862991086</v>
       </c>
       <c r="S3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="T3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N4">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q4">
-        <v>0.01534779306166667</v>
+        <v>0.015567639613</v>
       </c>
       <c r="R4">
-        <v>0.138130137555</v>
+        <v>0.140108756517</v>
       </c>
       <c r="S4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="T4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
     </row>
   </sheetData>
